--- a/test/test_NO10/prepareInput/Workflow.xlsx
+++ b/test/test_NO10/prepareInput/Workflow.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
+    <sheet name="SensitivityParameter" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
   <si>
     <t>Code Identifier</t>
   </si>
@@ -36,12 +37,6 @@
   </si>
   <si>
     <t>WorkflowType</t>
-  </si>
-  <si>
-    <t>Type of the workflow (Only the entry of the first simulation is taken into account). Possible options are 
-- "pediatric" properties (physiology and PK Parameter) are display vs age and weigth
-- "parallelComparison" PK parameter are displayed parrallel in boxwhsiker plots no refernce population
-- "ratioComparison" same as parallelComparison, but additional the ratio of the PK Parameter to the reference population is calculated</t>
   </si>
   <si>
     <t>simulation</t>
@@ -99,13 +94,7 @@
     <t>population name used in figures and tables</t>
   </si>
   <si>
-    <t>outputs</t>
-  </si>
-  <si>
     <t>outputxls</t>
-  </si>
-  <si>
-    <t>name of the xls with the output definitions.</t>
   </si>
   <si>
     <t>outputsheet</t>
@@ -173,9 +162,6 @@
     <t>sensitivity analysis is performed</t>
   </si>
   <si>
-    <t>Workflow.xlsx</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -269,18 +255,9 @@
     <t>Vd</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
     <t>µg*h/l</t>
   </si>
   <si>
-    <t>ml/min/kg</t>
-  </si>
-  <si>
-    <t>ml/kg</t>
-  </si>
-  <si>
     <t>adult</t>
   </si>
   <si>
@@ -333,6 +310,115 @@
   </si>
   <si>
     <t>pediatric</t>
+  </si>
+  <si>
+    <t>Organism|Hematocrit</t>
+  </si>
+  <si>
+    <t>Organism|Bone|Volume</t>
+  </si>
+  <si>
+    <t>Organism|Fat|Volume</t>
+  </si>
+  <si>
+    <t>Organism|Fat|Fraction interstitial</t>
+  </si>
+  <si>
+    <t>Organism|Stomach|Volume</t>
+  </si>
+  <si>
+    <t>Organism|Stomach|Specific blood flow rate</t>
+  </si>
+  <si>
+    <t>Organism|SmallIntestine|Volume</t>
+  </si>
+  <si>
+    <t>Organism|SmallIntestine|Specific blood flow rate</t>
+  </si>
+  <si>
+    <t>Organism|LargeIntestine|Volume</t>
+  </si>
+  <si>
+    <t>Organism|LargeIntestine|Specific blood flow rate</t>
+  </si>
+  <si>
+    <t>Organism|Liver|Fraction vascular</t>
+  </si>
+  <si>
+    <t>Organism|Liver|Fraction interstitial</t>
+  </si>
+  <si>
+    <t>Organism|Liver|Volume</t>
+  </si>
+  <si>
+    <t>Organism|Liver|Specific blood flow rate</t>
+  </si>
+  <si>
+    <t>Organism|Pancreas|Volume</t>
+  </si>
+  <si>
+    <t>Organism|Pancreas|Specific blood flow rate</t>
+  </si>
+  <si>
+    <t>Organism|Spleen|Volume</t>
+  </si>
+  <si>
+    <t>Organism|Spleen|Specific blood flow rate</t>
+  </si>
+  <si>
+    <t>Neighborhoods|Bone_int_Bone_cell|BAY 1007626|P_cell_int_factor</t>
+  </si>
+  <si>
+    <t>Neighborhoods|Bone_int_Bone_cell|BAY 1007626|P_int_cell_factor</t>
+  </si>
+  <si>
+    <t>Neighborhoods|Fat_int_Fat_cell|BAY 1007626|P_cell_int_factor</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>NumberOfSteps</t>
+  </si>
+  <si>
+    <t>VariationRate</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>sensXls</t>
+  </si>
+  <si>
+    <t>xlsfilefor sensitivity Parameter definition; if it is empty, sheet is in this xlsfile</t>
+  </si>
+  <si>
+    <t>sensSheet</t>
+  </si>
+  <si>
+    <t>xlssheet for sensitivity Parameter definition; if empty first sheet is taken</t>
+  </si>
+  <si>
+    <t>SensitivityParameter</t>
+  </si>
+  <si>
+    <t>outputs and PK Parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name of the xls with the output definitions.
+</t>
+  </si>
+  <si>
+    <t>Type of the workflow (Only the entry of the first simulation is taken into account). Possible options are 
+- "pediatric" properties (physiology and PK Parameter) are display vs age and weigth, sensitivity analysis is done on all populations except reference, first pediatric output defines analysed PK Parameter base
+- "parallelComparison" PK parameter are displayed parrallel in boxwhsiker plots no reference population, sensitivity analysis is done on all populations, first output defines analysed PK Parameter base
+- "ratioComparison" same as parallelComparison, but additional the ratio of the PK Parameter to the reference population is calculated</t>
   </si>
 </sst>
 </file>
@@ -770,16 +856,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.8984375" customWidth="1"/>
-    <col min="2" max="2" width="40" style="12" customWidth="1"/>
+    <col min="2" max="2" width="58.296875" style="12" customWidth="1"/>
     <col min="3" max="3" width="27.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -808,10 +894,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -820,7 +906,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -829,98 +915,98 @@
     </row>
     <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
         <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -938,7 +1024,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -947,130 +1033,118 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="7"/>
@@ -1079,78 +1153,71 @@
     </row>
     <row r="20" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
+    <row r="25" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1158,6 +1225,48 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1170,7 +1279,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1183,88 +1292,88 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -1272,43 +1381,43 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1316,10 +1425,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -1327,10 +1436,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1338,10 +1447,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -1349,10 +1458,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1360,10 +1469,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -1371,35 +1480,376 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
